--- a/Dグループ_基本設計.xlsx
+++ b/Dグループ_基本設計.xlsx
@@ -8,27 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Dgroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E426F1-0DD6-4565-950F-8B6A307DC1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A891D-6DA1-47EF-91B9-9F41EF0D73F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="135" windowWidth="9795" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="改訂履歴" sheetId="4" r:id="rId2"/>
+    <sheet name="画面一覧" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$AZ$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$41</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">改訂履歴!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Dグループ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -106,6 +118,279 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>改訂履歴</t>
+  </si>
+  <si>
+    <t>項番</t>
+  </si>
+  <si>
+    <t>改訂日</t>
+  </si>
+  <si>
+    <t>改訂者</t>
+  </si>
+  <si>
+    <t>対象</t>
+  </si>
+  <si>
+    <t>改訂内容</t>
+  </si>
+  <si>
+    <t>宮城</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント作成画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント編集画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>myページ画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポーカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブラックジャック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテムショップ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>IDとパスワードでログイン。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーのランキング情報を閲覧できる。</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規ユーザーのアカウント作成を行う画面。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>既存のアカウントの編集を行う画面。</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前ページで入力した情報の確認を行う画面。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゲーム画面、アカウント編集画面、ランキング画面などに遷移する事が出来る。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポーカーを行う画面。</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブラックジャックを行う画面。</t>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテムを購入する事が出来る画面。</t>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -114,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +444,57 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -276,12 +602,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -317,11 +827,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -332,10 +842,186 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{2867FF45-D9DC-4EED-A1EB-3018CD2E0DDB}"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="2" xr:uid="{3E676005-5F5B-4373-869B-306C0BE6FB30}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2135,20 +2821,20 @@
       <c r="AK37" s="12"/>
       <c r="AL37" s="12"/>
       <c r="AM37" s="12"/>
-      <c r="AN37" s="13">
+      <c r="AN37" s="14">
         <v>43996</v>
       </c>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="13"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="13"/>
-      <c r="AT37" s="13"/>
-      <c r="AU37" s="13"/>
-      <c r="AV37" s="13"/>
-      <c r="AW37" s="13"/>
-      <c r="AX37" s="13"/>
-      <c r="AY37" s="13"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
       <c r="AZ37" s="2"/>
     </row>
     <row r="38" spans="1:52" ht="13.5" customHeight="1">
@@ -2169,11 +2855,11 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="15"/>
       <c r="AP38" s="15"/>
@@ -2206,13 +2892,13 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="14" t="s">
+      <c r="AI39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="14"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
       <c r="AN39" s="16" t="s">
         <v>9</v>
       </c>
@@ -2247,11 +2933,11 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
       <c r="AN40" s="17"/>
       <c r="AO40" s="17"/>
       <c r="AP40" s="17"/>
@@ -2313,6 +2999,4777 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD85FAA-31FC-4DDB-A9CB-05025EEC52E0}">
+  <dimension ref="B1:AZ42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="2.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
+    <col min="8" max="52" width="2.625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="0.5" style="1" customWidth="1"/>
+    <col min="54" max="54" width="2.625" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:52" ht="3" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:52" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="20"/>
+    </row>
+    <row r="3" spans="2:52" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="23"/>
+    </row>
+    <row r="5" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="28"/>
+    </row>
+    <row r="6" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B6" s="29">
+        <f>MAX($B$5:B5)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31">
+        <v>43996</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="39"/>
+    </row>
+    <row r="7" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B7" s="40">
+        <f>MAX($B$5:B6)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="50"/>
+    </row>
+    <row r="8" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B8" s="40">
+        <f>MAX($B$5:B7)+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="50"/>
+    </row>
+    <row r="9" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B9" s="40">
+        <f>MAX($B$5:B8)+1</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="50"/>
+    </row>
+    <row r="10" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B10" s="40">
+        <f>MAX($B$5:B9)+1</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="50"/>
+    </row>
+    <row r="11" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B11" s="40">
+        <f>MAX($B$5:B10)+1</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="50"/>
+    </row>
+    <row r="12" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B12" s="40">
+        <f>MAX($B$5:B11)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="50"/>
+    </row>
+    <row r="13" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B13" s="40">
+        <f>MAX($B$5:B12)+1</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="50"/>
+    </row>
+    <row r="14" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B14" s="40">
+        <f>MAX($B$5:B13)+1</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="50"/>
+    </row>
+    <row r="15" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B15" s="40">
+        <f>MAX($B$5:B14)+1</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="50"/>
+    </row>
+    <row r="16" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B16" s="40">
+        <f>MAX($B$5:B15)+1</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="50"/>
+    </row>
+    <row r="17" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B17" s="40">
+        <f>MAX($B$5:B16)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="50"/>
+    </row>
+    <row r="18" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B18" s="40">
+        <f>MAX($B$5:B17)+1</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="50"/>
+    </row>
+    <row r="19" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B19" s="40">
+        <f>MAX($B$5:B18)+1</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="50"/>
+    </row>
+    <row r="20" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B20" s="40">
+        <f>MAX($B$5:B19)+1</f>
+        <v>15</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="50"/>
+    </row>
+    <row r="21" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B21" s="40">
+        <f>MAX($B$5:B20)+1</f>
+        <v>16</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="50"/>
+    </row>
+    <row r="22" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B22" s="40">
+        <f>MAX($B$5:B21)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="50"/>
+    </row>
+    <row r="23" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B23" s="40">
+        <f>MAX($B$5:B22)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="50"/>
+    </row>
+    <row r="24" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B24" s="40">
+        <f>MAX($B$5:B23)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="50"/>
+    </row>
+    <row r="25" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B25" s="40">
+        <f>MAX($B$5:B24)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="50"/>
+    </row>
+    <row r="26" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B26" s="40">
+        <f>MAX($B$5:B25)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="50"/>
+    </row>
+    <row r="27" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B27" s="40">
+        <f>MAX($B$5:B26)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="50"/>
+    </row>
+    <row r="28" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B28" s="40">
+        <f>MAX($B$5:B27)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="50"/>
+    </row>
+    <row r="29" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B29" s="40">
+        <f>MAX($B$5:B28)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="50"/>
+    </row>
+    <row r="30" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B30" s="40">
+        <f>MAX($B$5:B29)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="50"/>
+    </row>
+    <row r="31" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B31" s="40">
+        <f>MAX($B$5:B30)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="50"/>
+    </row>
+    <row r="32" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B32" s="40">
+        <f>MAX($B$5:B31)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="50"/>
+    </row>
+    <row r="33" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B33" s="40">
+        <f>MAX($B$5:B32)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="50"/>
+    </row>
+    <row r="34" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B34" s="40">
+        <f>MAX($B$5:B33)+1</f>
+        <v>29</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="50"/>
+    </row>
+    <row r="35" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B35" s="40">
+        <f>MAX($B$5:B34)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="50"/>
+    </row>
+    <row r="36" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B36" s="40">
+        <f>MAX($B$5:B35)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="50"/>
+    </row>
+    <row r="37" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B37" s="40">
+        <f>MAX($B$5:B36)+1</f>
+        <v>32</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="49"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="49"/>
+      <c r="AZ37" s="50"/>
+    </row>
+    <row r="38" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B38" s="40">
+        <f>MAX($B$5:B37)+1</f>
+        <v>33</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="49"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="49"/>
+      <c r="AL38" s="49"/>
+      <c r="AM38" s="49"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="49"/>
+      <c r="AU38" s="49"/>
+      <c r="AV38" s="49"/>
+      <c r="AW38" s="49"/>
+      <c r="AX38" s="49"/>
+      <c r="AY38" s="49"/>
+      <c r="AZ38" s="50"/>
+    </row>
+    <row r="39" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B39" s="40">
+        <f>MAX($B$5:B38)+1</f>
+        <v>34</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="49"/>
+      <c r="AU39" s="49"/>
+      <c r="AV39" s="49"/>
+      <c r="AW39" s="49"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="49"/>
+      <c r="AZ39" s="50"/>
+    </row>
+    <row r="40" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B40" s="40">
+        <f>MAX($B$5:B39)+1</f>
+        <v>35</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="49"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="49"/>
+      <c r="AL40" s="49"/>
+      <c r="AM40" s="49"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="49"/>
+      <c r="AV40" s="49"/>
+      <c r="AW40" s="49"/>
+      <c r="AX40" s="49"/>
+      <c r="AY40" s="49"/>
+      <c r="AZ40" s="50"/>
+    </row>
+    <row r="41" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B41" s="40">
+        <f>MAX($B$5:B40)+1</f>
+        <v>36</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="49"/>
+      <c r="AI41" s="49"/>
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="49"/>
+      <c r="AL41" s="49"/>
+      <c r="AM41" s="49"/>
+      <c r="AN41" s="49"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="49"/>
+      <c r="AS41" s="49"/>
+      <c r="AT41" s="49"/>
+      <c r="AU41" s="49"/>
+      <c r="AV41" s="49"/>
+      <c r="AW41" s="49"/>
+      <c r="AX41" s="49"/>
+      <c r="AY41" s="49"/>
+      <c r="AZ41" s="50"/>
+    </row>
+    <row r="42" spans="2:52" ht="13.5" customHeight="1">
+      <c r="B42" s="51">
+        <f>MAX($B$5:B41)+1</f>
+        <v>37</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="60"/>
+      <c r="AJ42" s="60"/>
+      <c r="AK42" s="60"/>
+      <c r="AL42" s="60"/>
+      <c r="AM42" s="60"/>
+      <c r="AN42" s="60"/>
+      <c r="AO42" s="60"/>
+      <c r="AP42" s="60"/>
+      <c r="AQ42" s="60"/>
+      <c r="AR42" s="60"/>
+      <c r="AS42" s="60"/>
+      <c r="AT42" s="60"/>
+      <c r="AU42" s="60"/>
+      <c r="AV42" s="60"/>
+      <c r="AW42" s="60"/>
+      <c r="AX42" s="60"/>
+      <c r="AY42" s="60"/>
+      <c r="AZ42" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="117">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B2:AZ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:U5"/>
+    <mergeCell ref="V5:AZ5"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E910026-C7C7-4435-8DA5-F4E8BD1ACF8E}">
+  <dimension ref="A1:BA42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15:P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="0.5" style="62" customWidth="1"/>
+    <col min="2" max="7" width="2.625" style="62" customWidth="1"/>
+    <col min="8" max="53" width="2.625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="0.5" style="1" customWidth="1"/>
+    <col min="55" max="56" width="2.625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="20"/>
+    </row>
+    <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="23"/>
+    </row>
+    <row r="4" spans="2:53" ht="12.75" thickTop="1"/>
+    <row r="5" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B5" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+    </row>
+    <row r="6" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B6" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+    </row>
+    <row r="7" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B7" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="76"/>
+    </row>
+    <row r="8" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B8" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="76"/>
+    </row>
+    <row r="9" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="76"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="76"/>
+    </row>
+    <row r="10" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B10" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+    </row>
+    <row r="11" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B11" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="76"/>
+    </row>
+    <row r="12" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B12" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+    </row>
+    <row r="13" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B13" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="76"/>
+      <c r="AZ13" s="76"/>
+      <c r="BA13" s="76"/>
+    </row>
+    <row r="14" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B14" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="76"/>
+    </row>
+    <row r="15" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="76"/>
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="76"/>
+    </row>
+    <row r="16" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="76"/>
+    </row>
+    <row r="17" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="76"/>
+    </row>
+    <row r="18" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="76"/>
+    </row>
+    <row r="19" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="76"/>
+    </row>
+    <row r="20" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+    </row>
+    <row r="21" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+    </row>
+    <row r="22" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
+      <c r="AZ22" s="76"/>
+      <c r="BA22" s="76"/>
+    </row>
+    <row r="23" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="76"/>
+      <c r="BA23" s="76"/>
+    </row>
+    <row r="24" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="76"/>
+    </row>
+    <row r="25" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+    </row>
+    <row r="26" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="76"/>
+    </row>
+    <row r="27" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+    </row>
+    <row r="28" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+    </row>
+    <row r="29" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
+      <c r="AJ29" s="76"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="76"/>
+      <c r="AM29" s="76"/>
+      <c r="AN29" s="76"/>
+      <c r="AO29" s="76"/>
+      <c r="AP29" s="76"/>
+      <c r="AQ29" s="76"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="76"/>
+      <c r="AV29" s="76"/>
+      <c r="AW29" s="76"/>
+      <c r="AX29" s="76"/>
+      <c r="AY29" s="76"/>
+      <c r="AZ29" s="76"/>
+      <c r="BA29" s="76"/>
+    </row>
+    <row r="30" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="76"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="76"/>
+    </row>
+    <row r="31" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="76"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="76"/>
+      <c r="AU31" s="76"/>
+      <c r="AV31" s="76"/>
+      <c r="AW31" s="76"/>
+      <c r="AX31" s="76"/>
+      <c r="AY31" s="76"/>
+      <c r="AZ31" s="76"/>
+      <c r="BA31" s="76"/>
+    </row>
+    <row r="32" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="76"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="76"/>
+      <c r="AW32" s="76"/>
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="76"/>
+      <c r="AZ32" s="76"/>
+      <c r="BA32" s="76"/>
+    </row>
+    <row r="33" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="76"/>
+      <c r="AT33" s="76"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
+      <c r="AW33" s="76"/>
+      <c r="AX33" s="76"/>
+      <c r="AY33" s="76"/>
+      <c r="AZ33" s="76"/>
+      <c r="BA33" s="76"/>
+    </row>
+    <row r="34" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="76"/>
+      <c r="AJ34" s="76"/>
+      <c r="AK34" s="76"/>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="76"/>
+      <c r="AN34" s="76"/>
+      <c r="AO34" s="76"/>
+      <c r="AP34" s="76"/>
+      <c r="AQ34" s="76"/>
+      <c r="AR34" s="76"/>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="76"/>
+      <c r="AU34" s="76"/>
+      <c r="AV34" s="76"/>
+      <c r="AW34" s="76"/>
+      <c r="AX34" s="76"/>
+      <c r="AY34" s="76"/>
+      <c r="AZ34" s="76"/>
+      <c r="BA34" s="76"/>
+    </row>
+    <row r="35" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
+      <c r="AI35" s="76"/>
+      <c r="AJ35" s="76"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+      <c r="AU35" s="76"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="76"/>
+      <c r="AX35" s="76"/>
+      <c r="AY35" s="76"/>
+      <c r="AZ35" s="76"/>
+      <c r="BA35" s="76"/>
+    </row>
+    <row r="36" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+    </row>
+    <row r="37" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="76"/>
+      <c r="AI37" s="76"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="76"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="76"/>
+      <c r="AV37" s="76"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="76"/>
+      <c r="AY37" s="76"/>
+      <c r="AZ37" s="76"/>
+      <c r="BA37" s="76"/>
+    </row>
+    <row r="38" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
+      <c r="AH38" s="76"/>
+      <c r="AI38" s="76"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="76"/>
+      <c r="AN38" s="76"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="76"/>
+    </row>
+    <row r="39" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="76"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="76"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="76"/>
+      <c r="AS39" s="76"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="76"/>
+      <c r="AY39" s="76"/>
+      <c r="AZ39" s="76"/>
+      <c r="BA39" s="76"/>
+    </row>
+    <row r="40" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="76"/>
+      <c r="AB40" s="76"/>
+      <c r="AC40" s="76"/>
+      <c r="AD40" s="76"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="76"/>
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="76"/>
+      <c r="AJ40" s="76"/>
+      <c r="AK40" s="76"/>
+      <c r="AL40" s="76"/>
+      <c r="AM40" s="76"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="76"/>
+      <c r="AP40" s="76"/>
+      <c r="AQ40" s="76"/>
+      <c r="AR40" s="76"/>
+      <c r="AS40" s="76"/>
+      <c r="AT40" s="76"/>
+      <c r="AU40" s="76"/>
+      <c r="AV40" s="76"/>
+      <c r="AW40" s="76"/>
+      <c r="AX40" s="76"/>
+      <c r="AY40" s="76"/>
+      <c r="AZ40" s="76"/>
+      <c r="BA40" s="76"/>
+    </row>
+    <row r="41" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="76"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="76"/>
+      <c r="AD41" s="76"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="76"/>
+      <c r="AL41" s="76"/>
+      <c r="AM41" s="76"/>
+      <c r="AN41" s="76"/>
+      <c r="AO41" s="76"/>
+      <c r="AP41" s="76"/>
+      <c r="AQ41" s="76"/>
+      <c r="AR41" s="76"/>
+      <c r="AS41" s="76"/>
+      <c r="AT41" s="76"/>
+      <c r="AU41" s="76"/>
+      <c r="AV41" s="76"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="76"/>
+      <c r="AY41" s="76"/>
+      <c r="AZ41" s="76"/>
+      <c r="BA41" s="76"/>
+    </row>
+    <row r="42" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="76"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="76"/>
+      <c r="AL42" s="76"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="76"/>
+      <c r="AQ42" s="76"/>
+      <c r="AR42" s="76"/>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="76"/>
+      <c r="AU42" s="76"/>
+      <c r="AV42" s="76"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="76"/>
+      <c r="AY42" s="76"/>
+      <c r="AZ42" s="76"/>
+      <c r="BA42" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="115">
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:P41"/>
+    <mergeCell ref="Q41:BA41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:P42"/>
+    <mergeCell ref="Q42:BA42"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:P39"/>
+    <mergeCell ref="Q39:BA39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:P40"/>
+    <mergeCell ref="Q40:BA40"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:P37"/>
+    <mergeCell ref="Q37:BA37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:P38"/>
+    <mergeCell ref="Q38:BA38"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:P35"/>
+    <mergeCell ref="Q35:BA35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:P36"/>
+    <mergeCell ref="Q36:BA36"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="Q33:BA33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:P34"/>
+    <mergeCell ref="Q34:BA34"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="Q31:BA31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:P32"/>
+    <mergeCell ref="Q32:BA32"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="Q29:BA29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="Q30:BA30"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="Q27:BA27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="Q28:BA28"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="Q25:BA25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="Q26:BA26"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="Q23:BA23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="Q24:BA24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="Q21:BA21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="Q22:BA22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="Q19:BA19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:P20"/>
+    <mergeCell ref="Q20:BA20"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="Q17:BA17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="Q18:BA18"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="Q15:BA15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="Q16:BA16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="Q13:BA13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="Q14:BA14"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="Q11:BA11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="Q12:BA12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="Q9:BA9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="Q10:BA10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="Q7:BA7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="Q8:BA8"/>
+    <mergeCell ref="B2:BA3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="Q5:BA5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="Q6:BA6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Dグループ_基本設計.xlsx
+++ b/Dグループ_基本設計.xlsx
@@ -8,32 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Dgroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A506D002-FEAB-4F66-B1E2-3269D15C0026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3DE30F-ABFC-4924-85A1-CA110E047099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="改訂履歴" sheetId="4" r:id="rId2"/>
     <sheet name="画面一覧" sheetId="6" r:id="rId3"/>
     <sheet name="ログイン画面" sheetId="8" r:id="rId4"/>
-    <sheet name="ポーカー" sheetId="11" r:id="rId5"/>
-    <sheet name="ブラックジャック" sheetId="10" r:id="rId6"/>
-    <sheet name="アイテム" sheetId="12" r:id="rId7"/>
-    <sheet name="Myページ" sheetId="13" r:id="rId8"/>
+    <sheet name="Myページ" sheetId="13" r:id="rId5"/>
+    <sheet name="ポーカー" sheetId="11" r:id="rId6"/>
+    <sheet name="ブラックジャック" sheetId="10" r:id="rId7"/>
+    <sheet name="アイテム" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Myページ!$A$1:$BA$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">アイテム!$A$1:$BA$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">ブラックジャック!$A$1:$BA$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">ポーカー!$A$1:$BA$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Myページ!$A$1:$BA$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">アイテム!$A$1:$BA$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">ブラックジャック!$A$1:$BA$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ポーカー!$A$1:$BA$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ログイン画面!$A$1:$BA$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$AZ$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">Myページ!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">アイテム!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Myページ!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">アイテム!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">改訂履歴!$1:$5</definedName>
   </definedNames>
@@ -1940,1498 +1940,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>195387</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>106370</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1557D411-753E-4A9E-91C3-BB2FD4872AB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1165412" y="1109382"/>
-          <a:ext cx="2896004" cy="3400900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413391E1-187C-4996-B895-AB996EA7B4DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3355041" y="2755526"/>
-          <a:ext cx="2063002" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0E399-AE86-4875-B1E0-F724FE60C301}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1195107" y="2300568"/>
-          <a:ext cx="2045073" cy="935691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67E0970-251B-4F56-B87A-31E7544D4541}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5461188" y="3638550"/>
-          <a:ext cx="2134720" cy="515246"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>my</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ページ画面へ遷移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>51545</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667E902-227C-423C-AA75-A55C869414B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3228974" y="3899647"/>
-          <a:ext cx="2061321" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5ADF3D-CC20-4292-BE84-4E6D5BE854C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1195107" y="3407709"/>
-          <a:ext cx="1643344" cy="939052"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112953</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A5C910-934A-48F5-93CE-50DAC3B65F26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5681383" y="2498911"/>
-          <a:ext cx="2129117" cy="505160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ポーカーが始まる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>2423</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76689</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845313CC-A554-4144-9683-55DB5684BB9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1165411" y="974912"/>
-          <a:ext cx="5325218" cy="3505689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C9AE72-7577-405F-A24C-E049D7624A15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3377453" y="2700617"/>
-          <a:ext cx="2079811" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B9190A-F56C-4FF0-9CA1-B18DAA2D6E7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1199029" y="2252383"/>
-          <a:ext cx="2061882" cy="918882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698541AA-BDA4-47C5-BF23-0DC95B993D8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5502089" y="3563471"/>
-          <a:ext cx="2151529" cy="505160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>my</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ページ画面へ遷移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>51545</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0DB068-DD3C-4A3D-8498-1CED0BBDC44C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3249705" y="3821206"/>
-          <a:ext cx="2079811" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7714524-207E-4058-9529-D9FB328DE114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1199029" y="3339353"/>
-          <a:ext cx="1658472" cy="918882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112953</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19950D3-C8FD-4E1C-AFF8-ED414C4D03D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5681383" y="2498911"/>
-          <a:ext cx="3092823" cy="505160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ブラックジャックが始まる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9304</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>69695</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8BCC02-B150-4C59-8A9A-41AD123C34B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="460562" y="1476935"/>
-          <a:ext cx="3587342" cy="4117260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>174238</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>122855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>196241</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>58079</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320524BC-2F35-4191-AAC6-43C2FB2F7FAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1212463" y="5133005"/>
-          <a:ext cx="22003" cy="1135374"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5905</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>160495</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11616</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF777CB2-9EF8-40EA-ABD0-648487296ADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="444055" y="3456145"/>
-          <a:ext cx="3206111" cy="696755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12628</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>151504</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104543</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C87752-CD6E-4FF4-BB2D-69194A584B9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="450778" y="2589904"/>
-          <a:ext cx="3492340" cy="717363"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>185856</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>92927</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>127774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18BA65C-4884-4A5D-96CE-9A85A4C81441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="423981" y="4309783"/>
-          <a:ext cx="1507271" cy="656691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>46463</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>186019</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162622</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482E107E-3864-45B1-81B3-F94BAC48E408}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4085063" y="3105151"/>
-          <a:ext cx="1739756" cy="10221"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>46026</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>159943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>106783</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161736</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CEDB58-6C98-4512-A785-F023FCCD00AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3684576" y="3798493"/>
-          <a:ext cx="1460932" cy="1793"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129989</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65360A7C-C001-4B3E-869E-16786ABDF5D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5235949" y="3656480"/>
-          <a:ext cx="1726266" cy="283509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アイテムリスト画面に遷移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>109816</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31376</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>11615</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0678379-A6EF-41ED-9B0A-AC18C1D6F5EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5948641" y="2984126"/>
-          <a:ext cx="1702024" cy="283509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アイテムショップに遷移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31978</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>110419</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B6F5A-CD55-441C-A92C-D39042E13C00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="470128" y="6381750"/>
-          <a:ext cx="1478616" cy="283509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>My</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページ画面に遷移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165730</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -4598,6 +3106,1498 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>195387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1557D411-753E-4A9E-91C3-BB2FD4872AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1165412" y="1109382"/>
+          <a:ext cx="2896004" cy="3400900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413391E1-187C-4996-B895-AB996EA7B4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3355041" y="2755526"/>
+          <a:ext cx="2063002" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0E399-AE86-4875-B1E0-F724FE60C301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1195107" y="2300568"/>
+          <a:ext cx="2045073" cy="935691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67E0970-251B-4F56-B87A-31E7544D4541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461188" y="3638550"/>
+          <a:ext cx="2134720" cy="515246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>my</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ページ画面へ遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>51545</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667E902-227C-423C-AA75-A55C869414B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3228974" y="3899647"/>
+          <a:ext cx="2061321" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5ADF3D-CC20-4292-BE84-4E6D5BE854C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1195107" y="3407709"/>
+          <a:ext cx="1643344" cy="939052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A5C910-934A-48F5-93CE-50DAC3B65F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681383" y="2498911"/>
+          <a:ext cx="2129117" cy="505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ポーカーが始まる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2423</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845313CC-A554-4144-9683-55DB5684BB9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1165411" y="974912"/>
+          <a:ext cx="5325218" cy="3505689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C9AE72-7577-405F-A24C-E049D7624A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3377453" y="2700617"/>
+          <a:ext cx="2079811" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B9190A-F56C-4FF0-9CA1-B18DAA2D6E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1199029" y="2252383"/>
+          <a:ext cx="2061882" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698541AA-BDA4-47C5-BF23-0DC95B993D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5502089" y="3563471"/>
+          <a:ext cx="2151529" cy="505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>my</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ページ画面へ遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>51545</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0DB068-DD3C-4A3D-8498-1CED0BBDC44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3249705" y="3821206"/>
+          <a:ext cx="2079811" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7714524-207E-4058-9529-D9FB328DE114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1199029" y="3339353"/>
+          <a:ext cx="1658472" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19950D3-C8FD-4E1C-AFF8-ED414C4D03D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681383" y="2498911"/>
+          <a:ext cx="3092823" cy="505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ブラックジャックが始まる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9304</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8BCC02-B150-4C59-8A9A-41AD123C34B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="460562" y="1476935"/>
+          <a:ext cx="3587342" cy="4117260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174238</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196241</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320524BC-2F35-4191-AAC6-43C2FB2F7FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1212463" y="5133005"/>
+          <a:ext cx="22003" cy="1135374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5905</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>11616</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF777CB2-9EF8-40EA-ABD0-648487296ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444055" y="3456145"/>
+          <a:ext cx="3206111" cy="696755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12628</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104543</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C87752-CD6E-4FF4-BB2D-69194A584B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="450778" y="2589904"/>
+          <a:ext cx="3492340" cy="717363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185856</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92927</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18BA65C-4884-4A5D-96CE-9A85A4C81441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423981" y="4309783"/>
+          <a:ext cx="1507271" cy="656691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>46463</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>186019</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482E107E-3864-45B1-81B3-F94BAC48E408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4085063" y="3105151"/>
+          <a:ext cx="1739756" cy="10221"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>106783</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CEDB58-6C98-4512-A785-F023FCCD00AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3684576" y="3798493"/>
+          <a:ext cx="1460932" cy="1793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65360A7C-C001-4B3E-869E-16786ABDF5D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5235949" y="3656480"/>
+          <a:ext cx="1726266" cy="283509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテムリスト画面に遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>109816</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>11615</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0678379-A6EF-41ED-9B0A-AC18C1D6F5EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5948641" y="2984126"/>
+          <a:ext cx="1702024" cy="283509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテムショップに遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31978</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>110419</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B6F5A-CD55-441C-A92C-D39042E13C00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="470128" y="6381750"/>
+          <a:ext cx="1478616" cy="283509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>My</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ画面に遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4863,7 +4863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742EA81-A7B6-41B8-A2CC-E7A2A9342B63}">
   <dimension ref="A1:AZ41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -31282,6 +31282,418 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EEE90D-A381-4592-86B4-FDFF01C17172}">
+  <dimension ref="B1:BA46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.5" style="121" customWidth="1"/>
+    <col min="2" max="53" width="2.625" style="121"/>
+    <col min="54" max="54" width="0.5" style="121" customWidth="1"/>
+    <col min="55" max="16384" width="2.625" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B2" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="123">
+        <v>43996</v>
+      </c>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="124"/>
+    </row>
+    <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="126"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="127"/>
+    </row>
+    <row r="4" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+    </row>
+    <row r="5" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B5" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="132"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="132"/>
+      <c r="AX5" s="132"/>
+      <c r="AY5" s="132"/>
+      <c r="AZ5" s="132"/>
+      <c r="BA5" s="133"/>
+    </row>
+    <row r="6" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B6" s="134"/>
+      <c r="BA6" s="135"/>
+    </row>
+    <row r="7" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B7" s="134"/>
+      <c r="AV7" s="136"/>
+      <c r="AW7" s="136"/>
+      <c r="AX7" s="136"/>
+      <c r="AY7" s="136"/>
+      <c r="AZ7" s="136"/>
+      <c r="BA7" s="135"/>
+    </row>
+    <row r="8" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B8" s="134"/>
+      <c r="AY8" s="136"/>
+      <c r="AZ8" s="136"/>
+      <c r="BA8" s="135"/>
+    </row>
+    <row r="9" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B9" s="134"/>
+      <c r="AY9" s="136"/>
+      <c r="AZ9" s="136"/>
+      <c r="BA9" s="135"/>
+    </row>
+    <row r="10" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B10" s="134"/>
+      <c r="AZ10" s="136"/>
+      <c r="BA10" s="135"/>
+    </row>
+    <row r="11" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B11" s="134"/>
+      <c r="AZ11" s="136"/>
+      <c r="BA11" s="135"/>
+    </row>
+    <row r="12" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B12" s="134"/>
+      <c r="AZ12" s="136"/>
+      <c r="BA12" s="135"/>
+    </row>
+    <row r="13" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B13" s="134"/>
+      <c r="AZ13" s="136"/>
+      <c r="BA13" s="135"/>
+    </row>
+    <row r="14" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B14" s="134"/>
+      <c r="AZ14" s="136"/>
+      <c r="BA14" s="135"/>
+    </row>
+    <row r="15" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B15" s="134"/>
+      <c r="AZ15" s="136"/>
+      <c r="BA15" s="135"/>
+    </row>
+    <row r="16" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B16" s="134"/>
+      <c r="AZ16" s="136"/>
+      <c r="BA16" s="135"/>
+    </row>
+    <row r="17" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B17" s="134"/>
+      <c r="AZ17" s="136"/>
+      <c r="BA17" s="135"/>
+    </row>
+    <row r="18" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B18" s="134"/>
+      <c r="AZ18" s="136"/>
+      <c r="BA18" s="135"/>
+    </row>
+    <row r="19" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B19" s="134"/>
+      <c r="AZ19" s="136"/>
+      <c r="BA19" s="135"/>
+    </row>
+    <row r="20" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B20" s="134"/>
+      <c r="AZ20" s="136"/>
+      <c r="BA20" s="135"/>
+    </row>
+    <row r="21" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B21" s="134"/>
+      <c r="AZ21" s="136"/>
+      <c r="BA21" s="135"/>
+    </row>
+    <row r="22" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B22" s="134"/>
+      <c r="AZ22" s="136"/>
+      <c r="BA22" s="135"/>
+    </row>
+    <row r="23" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B23" s="134"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="135"/>
+    </row>
+    <row r="24" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B24" s="134"/>
+      <c r="AZ24" s="136"/>
+      <c r="BA24" s="135"/>
+    </row>
+    <row r="25" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B25" s="134"/>
+      <c r="AZ25" s="136"/>
+      <c r="BA25" s="135"/>
+    </row>
+    <row r="26" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B26" s="134"/>
+      <c r="AZ26" s="136"/>
+      <c r="BA26" s="135"/>
+    </row>
+    <row r="27" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B27" s="134"/>
+      <c r="AZ27" s="136"/>
+      <c r="BA27" s="135"/>
+    </row>
+    <row r="28" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B28" s="134"/>
+      <c r="AZ28" s="136"/>
+      <c r="BA28" s="135"/>
+    </row>
+    <row r="29" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B29" s="134"/>
+      <c r="BA29" s="135"/>
+    </row>
+    <row r="30" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B30" s="134"/>
+      <c r="BA30" s="135"/>
+    </row>
+    <row r="31" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B31" s="134"/>
+      <c r="BA31" s="135"/>
+    </row>
+    <row r="32" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B32" s="134"/>
+      <c r="BA32" s="135"/>
+    </row>
+    <row r="33" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B33" s="134"/>
+      <c r="BA33" s="135"/>
+    </row>
+    <row r="34" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B34" s="134"/>
+      <c r="BA34" s="135"/>
+    </row>
+    <row r="35" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B35" s="134"/>
+      <c r="BA35" s="135"/>
+    </row>
+    <row r="36" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B36" s="134"/>
+      <c r="BA36" s="135"/>
+    </row>
+    <row r="37" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B37" s="134"/>
+      <c r="BA37" s="135"/>
+    </row>
+    <row r="38" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B38" s="134"/>
+    </row>
+    <row r="39" spans="2:53" ht="13.5" customHeight="1">
+      <c r="B39" s="134"/>
+      <c r="BA39" s="135"/>
+    </row>
+    <row r="40" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA40" s="135"/>
+    </row>
+    <row r="41" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA41" s="135"/>
+    </row>
+    <row r="42" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA42" s="135"/>
+    </row>
+    <row r="43" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA43" s="135"/>
+    </row>
+    <row r="44" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA44" s="135"/>
+    </row>
+    <row r="45" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA45" s="135"/>
+    </row>
+    <row r="46" spans="2:53" ht="13.5" customHeight="1">
+      <c r="BA46" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:BA5"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="83" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="49" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
+    <brk id="125" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587471A2-2A76-4203-8AEC-0991674BE754}">
   <dimension ref="A1:ER244"/>
   <sheetViews>
@@ -51226,7 +51638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66563BFA-656F-4CB8-9398-A62985ABF05A}">
   <dimension ref="A1:ER244"/>
   <sheetViews>
@@ -71171,11 +71583,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FACC9E-190A-462F-AF52-06AC87B17259}">
   <dimension ref="B1:BA46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:BA5"/>
     </sheetView>
   </sheetViews>
@@ -71581,416 +71993,4 @@
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EEE90D-A381-4592-86B4-FDFF01C17172}">
-  <dimension ref="B1:BA46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="0.5" style="121" customWidth="1"/>
-    <col min="2" max="53" width="2.625" style="121"/>
-    <col min="54" max="54" width="0.5" style="121" customWidth="1"/>
-    <col min="55" max="16384" width="2.625" style="121"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="123">
-        <v>43996</v>
-      </c>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="124"/>
-    </row>
-    <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="125" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125"/>
-      <c r="AO3" s="125"/>
-      <c r="AP3" s="125"/>
-      <c r="AQ3" s="125"/>
-      <c r="AR3" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="127"/>
-    </row>
-    <row r="4" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-    </row>
-    <row r="5" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B5" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="132"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="132"/>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="132"/>
-      <c r="AX5" s="132"/>
-      <c r="AY5" s="132"/>
-      <c r="AZ5" s="132"/>
-      <c r="BA5" s="133"/>
-    </row>
-    <row r="6" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B6" s="134"/>
-      <c r="BA6" s="135"/>
-    </row>
-    <row r="7" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B7" s="134"/>
-      <c r="AV7" s="136"/>
-      <c r="AW7" s="136"/>
-      <c r="AX7" s="136"/>
-      <c r="AY7" s="136"/>
-      <c r="AZ7" s="136"/>
-      <c r="BA7" s="135"/>
-    </row>
-    <row r="8" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B8" s="134"/>
-      <c r="AY8" s="136"/>
-      <c r="AZ8" s="136"/>
-      <c r="BA8" s="135"/>
-    </row>
-    <row r="9" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B9" s="134"/>
-      <c r="AY9" s="136"/>
-      <c r="AZ9" s="136"/>
-      <c r="BA9" s="135"/>
-    </row>
-    <row r="10" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B10" s="134"/>
-      <c r="AZ10" s="136"/>
-      <c r="BA10" s="135"/>
-    </row>
-    <row r="11" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B11" s="134"/>
-      <c r="AZ11" s="136"/>
-      <c r="BA11" s="135"/>
-    </row>
-    <row r="12" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B12" s="134"/>
-      <c r="AZ12" s="136"/>
-      <c r="BA12" s="135"/>
-    </row>
-    <row r="13" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B13" s="134"/>
-      <c r="AZ13" s="136"/>
-      <c r="BA13" s="135"/>
-    </row>
-    <row r="14" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B14" s="134"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="135"/>
-    </row>
-    <row r="15" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B15" s="134"/>
-      <c r="AZ15" s="136"/>
-      <c r="BA15" s="135"/>
-    </row>
-    <row r="16" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B16" s="134"/>
-      <c r="AZ16" s="136"/>
-      <c r="BA16" s="135"/>
-    </row>
-    <row r="17" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B17" s="134"/>
-      <c r="AZ17" s="136"/>
-      <c r="BA17" s="135"/>
-    </row>
-    <row r="18" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B18" s="134"/>
-      <c r="AZ18" s="136"/>
-      <c r="BA18" s="135"/>
-    </row>
-    <row r="19" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B19" s="134"/>
-      <c r="AZ19" s="136"/>
-      <c r="BA19" s="135"/>
-    </row>
-    <row r="20" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B20" s="134"/>
-      <c r="AZ20" s="136"/>
-      <c r="BA20" s="135"/>
-    </row>
-    <row r="21" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B21" s="134"/>
-      <c r="AZ21" s="136"/>
-      <c r="BA21" s="135"/>
-    </row>
-    <row r="22" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B22" s="134"/>
-      <c r="AZ22" s="136"/>
-      <c r="BA22" s="135"/>
-    </row>
-    <row r="23" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B23" s="134"/>
-      <c r="AZ23" s="136"/>
-      <c r="BA23" s="135"/>
-    </row>
-    <row r="24" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B24" s="134"/>
-      <c r="AZ24" s="136"/>
-      <c r="BA24" s="135"/>
-    </row>
-    <row r="25" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B25" s="134"/>
-      <c r="AZ25" s="136"/>
-      <c r="BA25" s="135"/>
-    </row>
-    <row r="26" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B26" s="134"/>
-      <c r="AZ26" s="136"/>
-      <c r="BA26" s="135"/>
-    </row>
-    <row r="27" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B27" s="134"/>
-      <c r="AZ27" s="136"/>
-      <c r="BA27" s="135"/>
-    </row>
-    <row r="28" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B28" s="134"/>
-      <c r="AZ28" s="136"/>
-      <c r="BA28" s="135"/>
-    </row>
-    <row r="29" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B29" s="134"/>
-      <c r="BA29" s="135"/>
-    </row>
-    <row r="30" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B30" s="134"/>
-      <c r="BA30" s="135"/>
-    </row>
-    <row r="31" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B31" s="134"/>
-      <c r="BA31" s="135"/>
-    </row>
-    <row r="32" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B32" s="134"/>
-      <c r="BA32" s="135"/>
-    </row>
-    <row r="33" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B33" s="134"/>
-      <c r="BA33" s="135"/>
-    </row>
-    <row r="34" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B34" s="134"/>
-      <c r="BA34" s="135"/>
-    </row>
-    <row r="35" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B35" s="134"/>
-      <c r="BA35" s="135"/>
-    </row>
-    <row r="36" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B36" s="134"/>
-      <c r="BA36" s="135"/>
-    </row>
-    <row r="37" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B37" s="134"/>
-      <c r="BA37" s="135"/>
-    </row>
-    <row r="38" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B38" s="134"/>
-    </row>
-    <row r="39" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B39" s="134"/>
-      <c r="BA39" s="135"/>
-    </row>
-    <row r="40" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA40" s="135"/>
-    </row>
-    <row r="41" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA41" s="135"/>
-    </row>
-    <row r="42" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA42" s="135"/>
-    </row>
-    <row r="43" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA43" s="135"/>
-    </row>
-    <row r="44" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA44" s="135"/>
-    </row>
-    <row r="45" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA45" s="135"/>
-    </row>
-    <row r="46" spans="2:53" ht="13.5" customHeight="1">
-      <c r="BA46" s="135"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:BA5"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="83" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="49" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
-    <brk id="125" max="16383" man="1"/>
-  </rowBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>